--- a/Dekompozycja szeregu czasowego - zadania.xlsx
+++ b/Dekompozycja szeregu czasowego - zadania.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="88">
   <si>
     <t>I</t>
   </si>
@@ -323,6 +323,27 @@
   </si>
   <si>
     <t>Zmiennosc poziomu pzecietnych emerytur jest wyjasnione przez f. trendu w 95% co swiadczy o dobrym dopasowaniu f. trendu do danych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funkcja trendu jest dobra jakosciowo a zatem tworzenie prognozy jest zasadne </t>
+  </si>
+  <si>
+    <t>^yt*</t>
+  </si>
+  <si>
+    <t>rok 2025= t*=23</t>
+  </si>
+  <si>
+    <t>prognoza punktowa</t>
+  </si>
+  <si>
+    <t>Prognozowana emerytura w roku 2025</t>
+  </si>
+  <si>
+    <t>t*=</t>
+  </si>
+  <si>
+    <t>spr.</t>
   </si>
 </sst>
 </file>
@@ -3284,10 +3305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4254,7 +4275,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="1:4">
       <c r="B56" t="s">
         <v>77</v>
       </c>
@@ -4266,7 +4287,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="1:4">
       <c r="B57" t="s">
         <v>79</v>
       </c>
@@ -4275,18 +4296,60 @@
         <v>0.94860045111687596</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="1:4">
       <c r="B58" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" spans="1:4">
       <c r="B61" t="s">
         <v>79</v>
       </c>
       <c r="C61" s="4">
         <f>RSQ(B5:B25,C5:C25)</f>
         <v>0.94860045111687541</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="4">
+        <f>L17+L14*23</f>
+        <v>2698.959281385281</v>
+      </c>
+      <c r="E68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="C71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="B72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="4">
+        <f>TREND(B5:B25,C5:C25,D71)</f>
+        <v>2698.959281385281</v>
       </c>
     </row>
   </sheetData>
